--- a/medicine/Psychotrope/Lipp/Lipp.xlsx
+++ b/medicine/Psychotrope/Lipp/Lipp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lipp est une brasserie située au 151, boulevard Saint-Germain, dans le 6e arrondissement de Paris, en France. Elle décerne chaque année un prix littéraire, le « prix Cazes », du nom d'un de ses anciens propriétaires.
@@ -512,15 +524,17 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est le 27 octobre 1880, que Léonard Lipp et son épouse Pétronille ouvrent leur brasserie boulevard Saint-Germain. Alsacien d'origine, né à Goldbach le 5 novembre 1846 dans le département du Haut-Rhin, Léonard Lipp a fui sa terre natale, devenue allemande, et se consacre à la préparation de cervelas rémoulade en entrée et de choucroute en plat de résistance, le tout accompagné de bière. Sa convivialité et des prix modestes lui font connaître un franc succès. L'établissement porte alors le nom de Brasserie des Bords du Rhin[1]. La germanophobie lors de la Première Guerre mondiale l'oblige à prendre comme nouveau nom la Brasserie des Bords pendant quelques années[2].
-En 1905, Jules Cazé en devient propriétaire. Il la revend ensuite à M. Hébrard[1],[2].
-En juillet 1920, le bougnat Marcelin Cazes (et non Marcellin) reprend l'établissement, qui était déjà fréquenté par quelques poètes comme Verlaine ou Apollinaire. Il le fait décorer avec des céramiques murales de Léon Fargue - le père de Léon-Paul Fargue[1] -, les plafonds peints de Charley Garry, les banquettes en moleskine marron. C'est en 1935 que Marcelin créera le prix Cazes, qui était originellement attribué chaque année à un auteur n'ayant jamais eu d'autre distinction littéraire, ce qui n'est plus le cas aujourd'hui. En 1955, Marcelin passe le flambeau à son fils Roger Cazes. Entre la fin des années 1950 et le début de la décennie suivante, Gaby Aghion organise pour la marque Chloé les défilés de prêt-à-porter dans cette brasserie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le 27 octobre 1880, que Léonard Lipp et son épouse Pétronille ouvrent leur brasserie boulevard Saint-Germain. Alsacien d'origine, né à Goldbach le 5 novembre 1846 dans le département du Haut-Rhin, Léonard Lipp a fui sa terre natale, devenue allemande, et se consacre à la préparation de cervelas rémoulade en entrée et de choucroute en plat de résistance, le tout accompagné de bière. Sa convivialité et des prix modestes lui font connaître un franc succès. L'établissement porte alors le nom de Brasserie des Bords du Rhin. La germanophobie lors de la Première Guerre mondiale l'oblige à prendre comme nouveau nom la Brasserie des Bords pendant quelques années.
+En 1905, Jules Cazé en devient propriétaire. Il la revend ensuite à M. Hébrard,.
+En juillet 1920, le bougnat Marcelin Cazes (et non Marcellin) reprend l'établissement, qui était déjà fréquenté par quelques poètes comme Verlaine ou Apollinaire. Il le fait décorer avec des céramiques murales de Léon Fargue - le père de Léon-Paul Fargue -, les plafonds peints de Charley Garry, les banquettes en moleskine marron. C'est en 1935 que Marcelin créera le prix Cazes, qui était originellement attribué chaque année à un auteur n'ayant jamais eu d'autre distinction littéraire, ce qui n'est plus le cas aujourd'hui. En 1955, Marcelin passe le flambeau à son fils Roger Cazes. Entre la fin des années 1950 et le début de la décennie suivante, Gaby Aghion organise pour la marque Chloé les défilés de prêt-à-porter dans cette brasserie.
 C'est devant cette brasserie, le 29 octobre 1965, que Mehdi Ben Barka, opposant politique au roi du Maroc, Hassan II, a été enlevé par les services secrets marocains avec de probables collaborations locales. L'« affaire Ben Barka » deviendra un scandale politique qui altérera profondément les relations entre la France et le Maroc.
-La brasserie est fréquentée par de nombreuses personnalités (politiques, artistiques, etc.), par exemple les écrivains Jacques Laurent et Jean Dutourd, les comédiens Michèle Morgan, Jean-Paul Belmondo et Elizabeth Taylor, le chanteur Claude Nougaro, le mannequin Kate Moss, les présidents Georges Pompidou, Valéry Giscard d'Estaing[4], François Mitterrand et Bill Clinton, l'ancienne impératrice Farah Pahlavi[5], ou encore Roberto Benzi, chef d'orchestre qui y célébrait ses grands succès.
-À partir de 1990, la famille Bertrand, d'origine auvergnate, propriétaire du salon de thé Angelina, de la chaîne de restauration rapide Bert's et du pub Sir Winston, reprend progressivement la brasserie[6]. Entre 2000 et 2020, Claude Guittard en est le directeur[5].
-Les décors sont d'origine et les menus du jour n'ont pas été changés depuis les années 1930[5].
+La brasserie est fréquentée par de nombreuses personnalités (politiques, artistiques, etc.), par exemple les écrivains Jacques Laurent et Jean Dutourd, les comédiens Michèle Morgan, Jean-Paul Belmondo et Elizabeth Taylor, le chanteur Claude Nougaro, le mannequin Kate Moss, les présidents Georges Pompidou, Valéry Giscard d'Estaing, François Mitterrand et Bill Clinton, l'ancienne impératrice Farah Pahlavi, ou encore Roberto Benzi, chef d'orchestre qui y célébrait ses grands succès.
+À partir de 1990, la famille Bertrand, d'origine auvergnate, propriétaire du salon de thé Angelina, de la chaîne de restauration rapide Bert's et du pub Sir Winston, reprend progressivement la brasserie. Entre 2000 et 2020, Claude Guittard en est le directeur.
+Les décors sont d'origine et les menus du jour n'ont pas été changés depuis les années 1930.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Prix Cazes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le prix Cazes est un prix littéraire créé dans le but de récompenser les auteurs de moins de 40 ans n'ayant jamais été primés, afin de leur servir de « rampe de lancement ». Depuis sa création, ce principe a cependant été abandonné. Il est doté d'un chèque de 4 000 euros et de vingt repas gratuits à la brasserie[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le prix Cazes est un prix littéraire créé dans le but de récompenser les auteurs de moins de 40 ans n'ayant jamais été primés, afin de leur servir de « rampe de lancement ». Depuis sa création, ce principe a cependant été abandonné. Il est doté d'un chèque de 4 000 euros et de vingt repas gratuits à la brasserie.
 1935 : La Compagnie théâtrale le Rideau de Paris, de Marcel Herrand et Jean Marchat, pour ses créations du Coup de Trafalgar (Roger Vitrac) et de L'Homme blanc (André de Richaud)
 1936 : Pierre Albert-Birot, pour Grabinoulor
 1937 : Thyde Monnier, pour La Rue courte
@@ -636,11 +652,11 @@
 2009 : Françoise Wagener, pour Je suis née inconsolable. Louise de Vilmorin (1902-1969), Albin Michel
 2010 : Christian Giudicelli, pour Square de la Couronne, Gallimard
 2011 : Patricia Reznikov, pour La nuit n’éclaire pas tout, Albin Michel
-2012 : Nicolas d'Estienne d'Orves, pour Les Fidélités successives, Albin Michel[8]
+2012 : Nicolas d'Estienne d'Orves, pour Les Fidélités successives, Albin Michel
 2013 : Diane de Margerie, pour Éclats d'insomnie, Grasset
 2014 : Robert Sabatier, pour Je vous quitte en vous embrassant bien fort, Albin Michel
 2015 : Gabriel Matzneff, pour La Lettre au capitaine Brunner, La Table Ronde
-2016 : Dominique Paravel, pour Giratoire, Serge Safran[9]
+2016 : Dominique Paravel, pour Giratoire, Serge Safran
 2017 : Éric Neuhoff, pour Costa Brava, Albin Michel
 2018 : Régis Wargnier, pour Les prix d'excellence, Grasset
 2019 : Louis-Henri de La Rochefoucauld, pour La Prophétie de John Lennon, Stock
@@ -675,11 +691,13 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cinéma
 Une scène du film Paris au mois d'août (1966) de Pierre Granier-Deferre avec Charles Aznavour et Susan Hampshire.
-Une scène du film Tanguy (2001) y est tournée[10],[5].
+Une scène du film Tanguy (2001) y est tournée,.
 Littérature
 L'écrivain Pierre Bourgeade a écrit plusieurs nouvelles ayant pour cadre la célèbre brasserie : « La Perleuse » (dans Cybersex et autres nouvelles, Éditions Blanche, 1997  (ISBN 978-2911621093)) ; « Histoire de Chimène » (dans Senso, mars-avril 2004, no 13) ; « Chimène chez Lipp » (extrait d'Éloge des fétichistes, Tristram, 2009, 193 p.  (ISBN 978-2907681766)).</t>
         </is>
